--- a/Estimation.xlsx
+++ b/Estimation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\GitLab\MyFristProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\GitLab\PracticeRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CDC301-0C60-4273-AC85-BAF38BCA0072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB9DCB1-AF1B-49B4-B25F-6E90CBD9DD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t xml:space="preserve">Eakaram </t>
   </si>
@@ -121,18 +121,64 @@
   </si>
   <si>
     <t xml:space="preserve">outside </t>
+  </si>
+  <si>
+    <t>mama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glod loan </t>
+  </si>
+  <si>
+    <t>pranitha gold</t>
+  </si>
+  <si>
+    <t>mallaiah koth</t>
+  </si>
+  <si>
+    <t>pavithra acc</t>
+  </si>
+  <si>
+    <t>recevied</t>
+  </si>
+  <si>
+    <t>Madhu Manjula</t>
+  </si>
+  <si>
+    <t>M VenkannaRamana</t>
+  </si>
+  <si>
+    <t>V Naveen</t>
+  </si>
+  <si>
+    <t>Gold Loan</t>
+  </si>
+  <si>
+    <t>Pavithar Haram</t>
+  </si>
+  <si>
+    <t>Pranitha Gold</t>
+  </si>
+  <si>
+    <t>AmmaNana Gold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,6 +204,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -216,33 +269,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T23"/>
+  <dimension ref="B2:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -532,17 +589,23 @@
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:21">
       <c r="J2" s="1"/>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="2:20">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
       <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
@@ -559,14 +622,18 @@
         <f>N3-M3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="T3">
+      <c r="S3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="1">
         <v>21000</v>
       </c>
-    </row>
-    <row r="4" spans="2:20">
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="2:21">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,15 +660,18 @@
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="T4">
-        <f>(3620+650)</f>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
         <v>4270</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:21">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -621,14 +691,16 @@
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="T5">
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="6" spans="2:20">
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="2:21">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,14 +727,16 @@
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="T6">
+      <c r="S6" s="1"/>
+      <c r="T6" s="1">
         <v>50000</v>
       </c>
-    </row>
-    <row r="7" spans="2:20">
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="2:21">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -681,11 +755,14 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="T7">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="8" spans="2:20">
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -710,19 +787,26 @@
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:20">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="2:21">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="T9">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1">
         <f>SUM(T3:T8)</f>
-        <v>101270</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20">
+        <v>97000</v>
+      </c>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="2:21">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -738,15 +822,15 @@
         <v>1000000</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:21">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -759,7 +843,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:21">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -784,7 +868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:21">
       <c r="J13" s="7" t="s">
         <v>16</v>
       </c>
@@ -796,7 +880,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:21">
       <c r="J14" s="8" t="s">
         <v>15</v>
       </c>
@@ -812,7 +896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:21">
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3">
@@ -823,7 +907,14 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:21">
+      <c r="B16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>100000</v>
+      </c>
       <c r="S16" s="2" t="s">
         <v>24</v>
       </c>
@@ -831,17 +922,31 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="5:18">
-      <c r="K17" s="13" t="s">
+    <row r="17" spans="2:20">
+      <c r="B17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
       <c r="N17">
         <v>1000000</v>
       </c>
     </row>
-    <row r="18" spans="5:18">
+    <row r="18" spans="2:20">
+      <c r="B18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>80000</v>
+      </c>
       <c r="J18" s="4" t="s">
         <v>17</v>
       </c>
@@ -850,7 +955,7 @@
       </c>
       <c r="N18">
         <f>N17-(K18+K20+K21+K22+K23)</f>
-        <v>138730</v>
+        <v>143000</v>
       </c>
       <c r="P18">
         <v>176000</v>
@@ -859,7 +964,14 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="5:18">
+    <row r="19" spans="2:20">
+      <c r="B19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>80000</v>
+      </c>
       <c r="E19">
         <v>550000</v>
       </c>
@@ -873,11 +985,14 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="20" spans="5:18">
+    <row r="20" spans="2:20">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20">
         <v>88000</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K20">
@@ -886,8 +1001,14 @@
       <c r="Q20">
         <v>70000</v>
       </c>
-    </row>
-    <row r="21" spans="5:18">
+      <c r="T20">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="F21">
         <f>E19/E20</f>
         <v>6.25</v>
@@ -911,28 +1032,143 @@
         <v>253200</v>
       </c>
     </row>
-    <row r="22" spans="5:18">
-      <c r="J22" s="16" t="s">
+    <row r="22" spans="2:20">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <f>SUM(D16:D21)</f>
+        <v>360000</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="13">
         <v>100000</v>
       </c>
       <c r="R22">
         <v>240000</v>
       </c>
     </row>
-    <row r="23" spans="5:18">
-      <c r="J23" s="15" t="s">
+    <row r="23" spans="2:20">
+      <c r="J23" s="11" t="s">
         <v>29</v>
       </c>
       <c r="K23">
         <f>T9</f>
-        <v>101270</v>
+        <v>97000</v>
+      </c>
+      <c r="N23" s="15">
+        <v>200000</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="R23">
         <f>R21-R22</f>
         <v>13200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="N24" s="15">
+        <v>360000</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="15">
+        <v>140000</v>
+      </c>
+      <c r="O25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>340000</v>
+      </c>
+      <c r="G26">
+        <f>4000+112+50+160</f>
+        <v>4322</v>
+      </c>
+      <c r="I26">
+        <f>30+90+90</f>
+        <v>210</v>
+      </c>
+      <c r="N26">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>360000</v>
+      </c>
+      <c r="I27">
+        <f>G26-I26</f>
+        <v>4112</v>
+      </c>
+      <c r="N27" s="2">
+        <v>200000</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>100000</v>
+      </c>
+      <c r="N28">
+        <f>SUM(N23:N27)</f>
+        <v>1000000</v>
+      </c>
+      <c r="T28">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="T29">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="T30">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="D31">
+        <f>SUM(D26:D30)</f>
+        <v>800000</v>
+      </c>
+      <c r="E31">
+        <f>(80000*0.8*12)/100</f>
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="T32">
+        <f>SUM(T27:T31)</f>
+        <v>141000</v>
       </c>
     </row>
   </sheetData>
